--- a/NikCmpe255/population/SFCRIMERATE.xlsx
+++ b/NikCmpe255/population/SFCRIMERATE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhileshchaudhary/Desktop/cmpe255Major/projectRepo/airquality-crime-link/NikCmpe255/population/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A380113-B662-8041-AFDE-ACAFC05A86EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E209524-143B-9D40-A2B0-D10394115260}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16160" xr2:uid="{E4499AA9-8776-9A49-A3F5-B3103B0F471D}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15960" xr2:uid="{E4499AA9-8776-9A49-A3F5-B3103B0F471D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -459,13 +459,15 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24" style="9" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="36.1640625" customWidth="1"/>
     <col min="6" max="6" width="38.6640625" customWidth="1"/>
     <col min="7" max="7" width="43.5" customWidth="1"/>
